--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1284187.302261864</v>
+        <v>1277750.777686276</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9772436.367681229</v>
+        <v>9771846.388290811</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>158.2262687079102</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>7.793918374892089</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>138.3378856333908</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -750,7 +750,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>69.98930104615282</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>53.03638470914569</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>65.92202770962915</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>275.8687271579634</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>327.6746917405591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,7 +984,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968129</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>61.67241019243994</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>209.3113818657388</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>239.0241697704909</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>262.1965313101144</v>
+        <v>362.0932293795046</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1151,7 +1151,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>22.96189723698673</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>87.95308749070819</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>106.1739913681362</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372791</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362803</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>203.6181829890725</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177849</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
-        <v>82.9249116246576</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442487</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.493200966817</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338904</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456097</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.48653597855878</v>
+        <v>27.53175225274352</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>169.5696628416319</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
@@ -1625,7 +1625,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372785</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>307.8610471848285</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.4247543599387</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681694</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338899</v>
+        <v>16.38844162398817</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456092</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901683</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>14.79823267080901</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838905</v>
+        <v>24.17382596574971</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828918</v>
+        <v>52.06849973564984</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043175</v>
+        <v>70.57601873167816</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459991</v>
+        <v>55.72314698196057</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643963</v>
+        <v>41.29686219380029</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931874</v>
+        <v>41.2233042466794</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908601</v>
+        <v>42.97275566644667</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147815</v>
+        <v>53.79159358883881</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805019</v>
+        <v>41.14384575541085</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922212</v>
+        <v>18.98356133658278</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367804</v>
+        <v>9.882059701038699</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920536</v>
+        <v>88.00800320656602</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.403061694776</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1186.909273376335</v>
+        <v>1819.409608251519</v>
       </c>
       <c r="C2" t="n">
-        <v>1186.909273376335</v>
+        <v>1659.585094405145</v>
       </c>
       <c r="D2" t="n">
-        <v>801.4681445930028</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="E2" t="n">
-        <v>793.5954997698794</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F2" t="n">
-        <v>780.7414653402612</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282644</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>535.2063152162339</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>1028.526606934763</v>
       </c>
       <c r="M2" t="n">
-        <v>1040.448080049574</v>
+        <v>1542.12928554445</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572952</v>
+        <v>1542.12928554445</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.74991746528</v>
+        <v>1542.12928554445</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596802</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678801</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T2" t="n">
-        <v>1784.768812238218</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="U2" t="n">
-        <v>1529.016082672817</v>
+        <v>1819.409608251519</v>
       </c>
       <c r="V2" t="n">
-        <v>1186.909273376335</v>
+        <v>1819.409608251519</v>
       </c>
       <c r="W2" t="n">
-        <v>1186.909273376335</v>
+        <v>1819.409608251519</v>
       </c>
       <c r="X2" t="n">
-        <v>1186.909273376335</v>
+        <v>1819.409608251519</v>
       </c>
       <c r="Y2" t="n">
-        <v>1186.909273376335</v>
+        <v>1819.409608251519</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021456</v>
+        <v>703.184559508882</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622378</v>
+        <v>552.5303290689742</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837181</v>
+        <v>422.4413616904545</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946059</v>
+        <v>285.9948708013422</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777377</v>
+        <v>161.563064684474</v>
       </c>
       <c r="G3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144824</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L3" t="n">
-        <v>640.1767275127957</v>
+        <v>957.9234609366055</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.276226875481</v>
+        <v>1471.526139546293</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875481</v>
+        <v>1561.559659207233</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466463</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.41787818286</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535684</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734592</v>
+        <v>1874.261482913893</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413234</v>
+        <v>1664.198339592535</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784301</v>
+        <v>1441.658337963602</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917588</v>
+        <v>1211.541092096889</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675997</v>
+        <v>1022.234014446901</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431069</v>
+        <v>842.9197975224081</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475502</v>
+        <v>691.1543438291865</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475502</v>
+        <v>520.9492258951757</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475502</v>
+        <v>365.3161127976904</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475502</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475502</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>382.5065569196679</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>97.06776516156884</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>97.06776516156884</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>43.49565939475502</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X4" t="n">
-        <v>43.49565939475502</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475502</v>
+        <v>876.3623625204877</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1554.791658217768</v>
+        <v>1566.54197346149</v>
       </c>
       <c r="C5" t="n">
-        <v>1554.791658217768</v>
+        <v>1173.36647196442</v>
       </c>
       <c r="D5" t="n">
-        <v>1276.13637826023</v>
+        <v>787.925343181088</v>
       </c>
       <c r="E5" t="n">
-        <v>873.5528533767741</v>
+        <v>385.3418182976325</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067519</v>
+        <v>372.4877838680143</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K5" t="n">
-        <v>188.1454323035831</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L5" t="n">
-        <v>673.8990329354898</v>
+        <v>893.805894502329</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354898</v>
+        <v>1213.372167075711</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572952</v>
+        <v>1726.974845685399</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.74991746528</v>
+        <v>1726.974845685399</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596802</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737751</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="T5" t="n">
-        <v>1951.282367297167</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="U5" t="n">
-        <v>1951.282367297167</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="V5" t="n">
-        <v>1951.282367297167</v>
+        <v>1566.54197346149</v>
       </c>
       <c r="W5" t="n">
-        <v>1951.282367297167</v>
+        <v>1566.54197346149</v>
       </c>
       <c r="X5" t="n">
-        <v>1951.282367297167</v>
+        <v>1566.54197346149</v>
       </c>
       <c r="Y5" t="n">
-        <v>1554.791658217768</v>
+        <v>1566.54197346149</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>716.4374237795012</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>565.7831933395934</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>435.6942259610737</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284343</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475502</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="L6" t="n">
-        <v>43.49565939475502</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="M6" t="n">
-        <v>581.7544444048482</v>
+        <v>874.8450714282526</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875481</v>
+        <v>1388.44775003794</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466463</v>
+        <v>1902.050428647628</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818286</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737751</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737751</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1466.972298661657</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1236.855052794944</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1047.547975144955</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>868.2337582204625</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.7009598706356</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="C7" t="n">
-        <v>530.7009598706356</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="D7" t="n">
-        <v>530.7009598706356</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="E7" t="n">
-        <v>530.7009598706356</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="F7" t="n">
-        <v>530.7009598706356</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G7" t="n">
-        <v>362.4469059700812</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H7" t="n">
-        <v>206.9683549315752</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>742.1265981188567</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="U7" t="n">
-        <v>530.7009598706356</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="V7" t="n">
-        <v>530.7009598706356</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="W7" t="n">
-        <v>530.7009598706356</v>
+        <v>498.695630156712</v>
       </c>
       <c r="X7" t="n">
-        <v>530.7009598706356</v>
+        <v>264.6153079396951</v>
       </c>
       <c r="Y7" t="n">
-        <v>530.7009598706356</v>
+        <v>41.50324675633841</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1604.635312545935</v>
+        <v>1567.203951264046</v>
       </c>
       <c r="C8" t="n">
-        <v>1604.635312545935</v>
+        <v>1567.203951264046</v>
       </c>
       <c r="D8" t="n">
-        <v>1604.635312545935</v>
+        <v>1567.203951264046</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1572.076674393824</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2012.116275286153</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>1975.634347577648</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.634347577648</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.634347577648</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>1604.635312545935</v>
+        <v>1956.65655633099</v>
       </c>
       <c r="X8" t="n">
-        <v>1604.635312545935</v>
+        <v>1567.203951264046</v>
       </c>
       <c r="Y8" t="n">
-        <v>1604.635312545935</v>
+        <v>1567.203951264046</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M9" t="n">
-        <v>963.7331842818107</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>217.5180880355544</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="W10" t="n">
-        <v>859.9184901272292</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="X10" t="n">
-        <v>625.8381679102123</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="Y10" t="n">
-        <v>402.7261067268557</v>
+        <v>100.8850758683575</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1795.371010771262</v>
+        <v>1383.607851381761</v>
       </c>
       <c r="C11" t="n">
-        <v>1473.991784420387</v>
+        <v>1062.228625030885</v>
       </c>
       <c r="D11" t="n">
-        <v>1160.346930783248</v>
+        <v>748.5837713937467</v>
       </c>
       <c r="E11" t="n">
-        <v>829.5596810459865</v>
+        <v>748.5837713937467</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185754</v>
+        <v>403.4856080699185</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V11" t="n">
-        <v>2740.928571142733</v>
+        <v>2653.859845686437</v>
       </c>
       <c r="W11" t="n">
-        <v>2441.725811257214</v>
+        <v>2354.657085800918</v>
       </c>
       <c r="X11" t="n">
-        <v>2124.069481336465</v>
+        <v>2037.000755880169</v>
       </c>
       <c r="Y11" t="n">
-        <v>2124.069481336465</v>
+        <v>1712.306321946964</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N12" t="n">
-        <v>2262.088962721623</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
         <v>2380.454662679751</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>556.6863671542446</v>
+        <v>473.1077715468676</v>
       </c>
       <c r="C13" t="n">
-        <v>556.6863671542446</v>
+        <v>374.6989287590508</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029532</v>
+        <v>290.8620908077596</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083496</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675164</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131558</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208436</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138159</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1470.988666078589</v>
+        <v>1468.922791054161</v>
       </c>
       <c r="S13" t="n">
-        <v>1339.968857407333</v>
+        <v>1337.902982382904</v>
       </c>
       <c r="T13" t="n">
-        <v>1176.04608072176</v>
+        <v>1173.980205697332</v>
       </c>
       <c r="U13" t="n">
-        <v>962.4035641098551</v>
+        <v>960.3376890854265</v>
       </c>
       <c r="V13" t="n">
-        <v>768.2204940768733</v>
+        <v>960.3376890854265</v>
       </c>
       <c r="W13" t="n">
-        <v>556.6863671542446</v>
+        <v>748.803562162798</v>
       </c>
       <c r="X13" t="n">
-        <v>556.6863671542446</v>
+        <v>586.519515091975</v>
       </c>
       <c r="Y13" t="n">
-        <v>556.6863671542446</v>
+        <v>586.519515091975</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1883.125979535624</v>
+        <v>1719.577864530541</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.843491816804</v>
+        <v>1398.198638179666</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1398.198638179666</v>
       </c>
       <c r="E14" t="n">
         <v>1067.411388442404</v>
@@ -5309,19 +5309,19 @@
         <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2770.295603492179</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="V14" t="n">
-        <v>2499.985069341892</v>
+        <v>2683.941523761099</v>
       </c>
       <c r="W14" t="n">
-        <v>2200.782309456373</v>
+        <v>2683.941523761099</v>
       </c>
       <c r="X14" t="n">
-        <v>1883.125979535624</v>
+        <v>2372.970769028949</v>
       </c>
       <c r="Y14" t="n">
-        <v>1883.125979535624</v>
+        <v>2048.276335095744</v>
       </c>
     </row>
     <row r="15">
@@ -5361,16 +5361,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>401.9661753553333</v>
+        <v>428.2599224835763</v>
       </c>
       <c r="C16" t="n">
-        <v>303.5573325675164</v>
+        <v>428.2599224835763</v>
       </c>
       <c r="D16" t="n">
-        <v>303.5573325675164</v>
+        <v>344.4230845322849</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5573325675164</v>
+        <v>260.6605475376813</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675164</v>
+        <v>175.1308878968481</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>78.67310914248742</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,16 +5437,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245445</v>
+        <v>936.042825624544</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915628</v>
+        <v>741.8597555915621</v>
       </c>
       <c r="W16" t="n">
-        <v>530.3256286689343</v>
+        <v>741.8597555915621</v>
       </c>
       <c r="X16" t="n">
-        <v>515.3779189004407</v>
+        <v>579.5757085207391</v>
       </c>
       <c r="Y16" t="n">
-        <v>515.3779189004407</v>
+        <v>428.2599224835763</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5498,10 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975448</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803431</v>
@@ -5595,22 +5595,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.196009291336</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N18" t="n">
-        <v>1493.196009291336</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O18" t="n">
-        <v>2009.716291882317</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5674,10 +5674,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
         <v>623.4297566485498</v>
@@ -5689,10 +5689,10 @@
         <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5783,7 +5783,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5792,7 +5792,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5832,22 +5832,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>580.3847592515303</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.156408878212</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N21" t="n">
-        <v>1863.93438008877</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128483</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M22" t="n">
-        <v>621.3883893133163</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N22" t="n">
-        <v>804.5780233445255</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6072,10 +6072,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1122.744905612751</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>776.8456480823215</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6233,22 +6233,22 @@
         <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1925.441780118093</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755555</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605752</v>
@@ -6257,19 +6257,19 @@
         <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755027</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
         <v>1235.193651060917</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225735</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904109</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026483</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424151</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.22278621427</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218597</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390258</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142174</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>606.9665031662627</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614365</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388519</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755554</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
         <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174142</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164849</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420325</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.56169864057</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848359</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
@@ -6546,16 +6546,16 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>873.7856815310552</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1501.557331157736</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026478</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463672</v>
+        <v>904.3560533993068</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.38072581081</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803386</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835488</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766598</v>
+        <v>323.8570290861561</v>
       </c>
       <c r="K32" t="n">
-        <v>783.7258626311916</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1277.04615434972</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1823.047054394301</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2361.623981089172</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3244.358523782684</v>
+        <v>3149.851074113022</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908499</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.18438039728</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761243</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394126</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004164</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076167</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996514</v>
+        <v>365.6713676929708</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918676</v>
+        <v>309.3853606404854</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237467</v>
+        <v>267.6713584245255</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123137</v>
+        <v>226.0316571652533</v>
       </c>
       <c r="F34" t="n">
-        <v>204.142889754651</v>
+        <v>182.6248332597516</v>
       </c>
       <c r="G34" t="n">
-        <v>143.299398783461</v>
+        <v>128.2898902407225</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431936</v>
+        <v>86.73045008374181</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703942</v>
+        <v>149.4335135798906</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074062</v>
+        <v>231.2685546898325</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082761</v>
+        <v>395.3961945636322</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729589</v>
+        <v>693.3398934768793</v>
       </c>
       <c r="N34" t="n">
-        <v>1094.837393831238</v>
+        <v>876.5295275080884</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.815253600016</v>
+        <v>1039.234294549796</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376595</v>
+        <v>1264.91011892862</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873654</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.785962625017</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395535</v>
+        <v>835.7257283273666</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000955</v>
+        <v>666.3144371400696</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012443</v>
+        <v>546.153225804578</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584508</v>
+        <v>436.9602755027468</v>
       </c>
     </row>
     <row r="35">
@@ -6974,13 +6974,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7023,16 +7023,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7093,28 +7093,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>435.0968109750523</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133163</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>804.5780233445255</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862335</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7260,16 +7260,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7330,28 +7330,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102856</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485496</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,22 +7436,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7494,16 +7494,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>862.5399502876207</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1490.311599914302</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>2146.089571124861</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7579,40 +7579,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7640,25 +7640,25 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L44" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M44" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O44" t="n">
         <v>2572.923332933306</v>
@@ -7667,13 +7667,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7725,22 +7725,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>1458.313011372373</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655142</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072222</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7979,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>495.6374895944569</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N2" t="n">
-        <v>312.0096393411963</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8058,25 +8058,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>474.3058082742471</v>
+        <v>611.177706503542</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>176.315062006631</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>643.9083723889834</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>472.519266318315</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,25 +8295,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837495</v>
+        <v>611.177706503542</v>
       </c>
       <c r="N6" t="n">
-        <v>526.3032062588468</v>
+        <v>604.1626973083968</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>261.9438791317315</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8459,19 +8459,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>320.6920226450452</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,25 +8529,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>569.9919810238545</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8781,7 +8781,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>87.08336481931465</v>
@@ -9009,7 +9009,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>163.9964000092958</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>92.38712204931191</v>
@@ -9018,10 +9018,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>609.629233666585</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9243,7 +9243,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9252,16 +9252,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>224.834151932995</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9480,10 +9480,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>290.5921503773105</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
@@ -9498,7 +9498,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>126.0381992661173</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9720,13 +9720,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>187.5973797276328</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,7 +9960,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>454.5321323046924</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
@@ -10194,19 +10194,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>461.3398360504042</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10437,7 +10437,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10671,7 +10671,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>577.006990218999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10908,7 +10908,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>577.006990218999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
         <v>85.37211285416666</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11142,19 +11142,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>461.3398360504045</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11373,25 +11373,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>577.006990218999</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>235.4731903224539</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>63.98924581971238</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993876</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>26.09713110045811</v>
+        <v>24.05191482627333</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>148.5957712457349</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362789</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.61871943671332</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177843</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465754</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442481</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>66.45701150940086</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>145.8629739293058</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>858430.9386037048</v>
+        <v>858130.1647968246</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>858430.9386037048</v>
+        <v>858130.1647968246</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>761891.7030868389</v>
+        <v>761891.7030868393</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>761891.7030868393</v>
+        <v>761891.7030868392</v>
       </c>
     </row>
     <row r="7">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>414764.0096147209</v>
+        <v>414764.0096147206</v>
       </c>
       <c r="C2" t="n">
         <v>414764.0096147206</v>
       </c>
       <c r="D2" t="n">
-        <v>414764.0096147208</v>
+        <v>414764.0096147206</v>
       </c>
       <c r="E2" t="n">
         <v>366525.7538761217</v>
       </c>
       <c r="F2" t="n">
-        <v>366525.7538761216</v>
+        <v>366525.7538761215</v>
       </c>
       <c r="G2" t="n">
-        <v>414764.0096147208</v>
+        <v>414764.0096147209</v>
       </c>
       <c r="H2" t="n">
-        <v>414764.0096147211</v>
+        <v>414764.009614721</v>
       </c>
       <c r="I2" t="n">
         <v>414764.0096147209</v>
@@ -26338,22 +26338,22 @@
         <v>414764.0096147206</v>
       </c>
       <c r="K2" t="n">
+        <v>414764.0096147209</v>
+      </c>
+      <c r="L2" t="n">
         <v>414764.0096147204</v>
       </c>
-      <c r="L2" t="n">
-        <v>414764.0096147208</v>
-      </c>
       <c r="M2" t="n">
-        <v>414764.0096147211</v>
+        <v>414764.0096147209</v>
       </c>
       <c r="N2" t="n">
-        <v>414764.0096147209</v>
+        <v>414764.009614721</v>
       </c>
       <c r="O2" t="n">
         <v>414764.0096147209</v>
       </c>
       <c r="P2" t="n">
-        <v>414764.0096147209</v>
+        <v>414764.0096147211</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062176</v>
+        <v>22558.42953401362</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668195</v>
+        <v>47425.32553668199</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.4717972854</v>
+        <v>62456.24177539688</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962296</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277118</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892384</v>
+        <v>184487.2052585817</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892384</v>
+        <v>184487.2052585817</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
+        <v>86988.78851589427</v>
+      </c>
+      <c r="F4" t="n">
         <v>86988.78851589424</v>
-      </c>
-      <c r="F4" t="n">
-        <v>86988.78851589428</v>
       </c>
       <c r="G4" t="n">
         <v>134747.7050074764</v>
@@ -26442,10 +26442,10 @@
         <v>135498.1974718596</v>
       </c>
       <c r="K4" t="n">
-        <v>135498.1974718595</v>
+        <v>135498.1974718596</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623215</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26491,13 +26491,13 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12201.0446063874</v>
+        <v>-8751.920212733254</v>
       </c>
       <c r="C6" t="n">
-        <v>170003.9036854684</v>
+        <v>165106.7368213217</v>
       </c>
       <c r="D6" t="n">
-        <v>164564.3617096443</v>
+        <v>156828.0724862523</v>
       </c>
       <c r="E6" t="n">
-        <v>114228.3841863424</v>
+        <v>114018.6526396527</v>
       </c>
       <c r="F6" t="n">
-        <v>226350.9456603868</v>
+        <v>226141.2141136972</v>
       </c>
       <c r="G6" t="n">
         <v>174421.2097550428</v>
       </c>
       <c r="H6" t="n">
-        <v>221846.535291725</v>
+        <v>221846.5352917249</v>
       </c>
       <c r="I6" t="n">
         <v>221846.5352917248</v>
       </c>
       <c r="J6" t="n">
-        <v>8804.617694438828</v>
+        <v>15320.90284901222</v>
       </c>
       <c r="K6" t="n">
-        <v>215606.7668889413</v>
+        <v>215606.7668889418</v>
       </c>
       <c r="L6" t="n">
-        <v>160424.1779543206</v>
+        <v>156375.3407438478</v>
       </c>
       <c r="M6" t="n">
-        <v>179645.705832102</v>
+        <v>178594.0108209137</v>
       </c>
       <c r="N6" t="n">
-        <v>221846.5352917248</v>
+        <v>221846.5352917249</v>
       </c>
       <c r="O6" t="n">
-        <v>194078.8412489536</v>
+        <v>194078.8412489537</v>
       </c>
       <c r="P6" t="n">
-        <v>221846.5352917248</v>
+        <v>221846.535291725</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26710,10 +26710,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443784</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095209</v>
+        <v>844.4391950293132</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085248</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660675</v>
+        <v>78.0703022192461</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551359</v>
+        <v>17.58004954287428</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.267382977372</v>
+        <v>659.3622249971644</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.2217133240722</v>
+        <v>117.1268713042799</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085248</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,22 +27379,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>231.0174777741884</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.7637712597288</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27427,16 +27427,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>11.94048546316088</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48.86991870270138</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>227.4607133389885</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>154.9589128618939</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>105.7179903375355</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>81.35643621631772</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27664,16 +27664,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27682,7 +27682,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626774</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>158.6421914202037</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27786,16 +27786,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>73.27302197477923</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>41.47292827764323</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27859,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>136.3611583245065</v>
+        <v>36.46446025511631</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28029,10 +28029,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>108.8015838723062</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>192.544010557426</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="17">
@@ -28746,14 +28746,14 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
@@ -28761,13 +28761,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.636002634528595</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,16 +28980,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>5.636002634528666</v>
       </c>
       <c r="M22" t="n">
-        <v>28.01250026485258</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,23 +29217,23 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>35.71049010668753</v>
-      </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29305,7 +29305,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>30.27223765901317</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -29317,7 +29317,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431646</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K29" t="n">
-        <v>30.27223765901255</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901186</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="32">
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.65992738833464</v>
+        <v>43.49509683159798</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>18.71446861254424</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>106.8683420224694</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30165,31 +30165,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>28.01250026485263</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,31 +30402,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>28.0125002648524</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30651,19 +30651,19 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>128.2979821082783</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30718,7 +30718,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30894,13 +30894,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34699,19 +34699,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>352.5790864152195</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N2" t="n">
-        <v>162.8911480034122</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34778,25 +34778,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>381.9186862249352</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>90.94294915246429</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>490.6602026584916</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>322.7942147205878</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N6" t="n">
-        <v>440.9310934046801</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>174.8605143124168</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35179,19 +35179,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>170.39057540412</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>484.6198681696878</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35501,7 +35501,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>73.93605315237758</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>516.9416747776961</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35972,16 +35972,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>137.7507871136803</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724868</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>200.5318035203923</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565487</v>
       </c>
       <c r="M22" t="n">
-        <v>216.1858117176445</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2252668734662</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36528,7 +36528,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>200.0587396437664</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101047</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>533.1427107449111</v>
@@ -36613,7 +36613,7 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700718</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698318</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,7 +36680,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>362.1450102553805</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
-        <v>392.8806780907922</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36841,19 +36841,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751655996</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>371.279489193486</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261597</v>
+        <v>258.8908014987991</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318504</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37078,16 +37078,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.9226305176212</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066585</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>235.3726143993938</v>
+        <v>230.2077838426571</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791168</v>
+        <v>82.70543230055102</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868808</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220908</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>206.8877800653362</v>
+        <v>300.9532312255021</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750296</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>227.9553781604276</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828626</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>484.6198681696871</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>193.7979950868726</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>484.6198681696871</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>371.2794891934863</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -37947,19 +37947,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>249.3850182462365</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634529095</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K44" t="n">
         <v>362.6084404317796</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>484.6198681696871</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38181,7 +38181,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683763</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
